--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1681866.485881698</v>
+        <v>1679050.593979246</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4916450.854058769</v>
+        <v>4916450.854058768</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8019923.371658913</v>
+        <v>8019923.371658912</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>328.9946067595774</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>114.5695529020989</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>155.6053465906474</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>57.87174647245027</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>361.996739518899</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>278.8402134403142</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -949,10 +949,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>224.6498274264335</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>259.0884119503397</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.6303082482834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>85.76410415991904</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>98.92470878417019</v>
       </c>
       <c r="D11" t="n">
-        <v>191.2411399018612</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>408.9283142668997</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>319.7892792266962</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>132.9900209556174</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.15461412430885</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>162.5055525480066</v>
@@ -1432,13 +1432,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>86.88315976700191</v>
       </c>
       <c r="I12" t="n">
-        <v>46.99939081380024</v>
+        <v>46.99939081380025</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.26241643898369</v>
+        <v>20.2624164389837</v>
       </c>
       <c r="S12" t="n">
         <v>132.559580477319</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>120.5883158341028</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>199.9842001330971</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.1648087637851</v>
@@ -1587,10 +1587,10 @@
         <v>282.5818882760543</v>
       </c>
       <c r="V13" t="n">
-        <v>97.72818274542915</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>154.9811469852447</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1621,13 +1621,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.9283142668997</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>319.7892792266962</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>132.9900209556174</v>
+        <v>0.4339780378625538</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>31.15461412430887</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>162.5055525480066</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>288.3849644621642</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>86.88315976700191</v>
       </c>
       <c r="I15" t="n">
-        <v>46.99939081380024</v>
+        <v>46.99939081380025</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.26241643898369</v>
+        <v>20.2624164389837</v>
       </c>
       <c r="S15" t="n">
         <v>132.559580477319</v>
@@ -1767,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>147.0619098590743</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5253946797129</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.5137285205241</v>
+        <v>128.9750165692566</v>
       </c>
       <c r="I16" t="n">
-        <v>130.3765665682599</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>26.81389666635088</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>199.9842001330971</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5818882760543</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>408.9283142668997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.516833043524862</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>162.5055525480066</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>61.62456601897396</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1869771745492</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -1943,7 +1943,7 @@
         <v>86.88315976700191</v>
       </c>
       <c r="I18" t="n">
-        <v>46.99939081380024</v>
+        <v>46.99939081380025</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.26241643898369</v>
+        <v>20.2624164389837</v>
       </c>
       <c r="S18" t="n">
         <v>132.559580477319</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>120.5883158341028</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>107.6488577008958</v>
       </c>
       <c r="U19" t="n">
-        <v>80.34152230386172</v>
+        <v>282.5818882760543</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2098,7 +2098,7 @@
         <v>408.9283142668997</v>
       </c>
       <c r="H20" t="n">
-        <v>319.7892792266962</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>28.8491834291765</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>91.48012396054793</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2180,7 +2180,7 @@
         <v>86.88315976700191</v>
       </c>
       <c r="I21" t="n">
-        <v>46.99939081380024</v>
+        <v>46.99939081380025</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.26241643898369</v>
+        <v>20.2624164389837</v>
       </c>
       <c r="S21" t="n">
         <v>132.559580477319</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>107.648857700896</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>38.37174071789112</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5818882760543</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -2320,13 +2320,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>52.91763376192926</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.6127627580592</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>22.21315271523807</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>107.7731453049667</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -2544,7 +2544,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>238.9841541448641</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2563,7 +2563,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2572,10 +2572,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>246.2686884007999</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>39.58182386153175</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
-        <v>92.22517578777429</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>269.7899081095852</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>408.4323500200001</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270195</v>
+        <v>47.96791937785747</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.6444459974996</v>
@@ -2851,10 +2851,10 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.36176632005095</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -2967,10 +2967,10 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>243.8060830729705</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>124.8735267269196</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>302.4289183060445</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
         <v>113.8693593270195</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
         <v>218.6444459974996</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>96.28309937494502</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>98.2211330066704</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3271,7 +3271,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>91.1803206999984</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>68.41597088891986</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>110.585143828612</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281788</v>
+        <v>136.0082460040178</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>256.7786465607396</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>337.9626337628887</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>18.17025101779502</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3517,13 +3517,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3666,10 +3666,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.3420431036066</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.69985177561038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>230.2864373342277</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>205.0496800270176</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>76.19311257242943</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>76.66783807881613</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U43" t="n">
         <v>282.5697534131281</v>
@@ -3963,7 +3963,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>285.9551837645779</v>
       </c>
       <c r="F44" t="n">
-        <v>11.94721032648581</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>23.32837275680474</v>
       </c>
       <c r="I46" t="n">
         <v>123.6862121416195</v>
@@ -4185,13 +4185,13 @@
         <v>110.585143828612</v>
       </c>
       <c r="S46" t="n">
-        <v>118.8510548107329</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1126.253005691974</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="C2" t="n">
-        <v>733.0775041949041</v>
+        <v>1686.914273632813</v>
       </c>
       <c r="D2" t="n">
-        <v>733.0775041949041</v>
+        <v>1686.914273632813</v>
       </c>
       <c r="E2" t="n">
-        <v>733.0775041949041</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F2" t="n">
-        <v>316.1830657248819</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G2" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q2" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>2939.442830146827</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>2683.690100581425</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V2" t="n">
-        <v>2683.690100581425</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W2" t="n">
-        <v>2312.691065549713</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X2" t="n">
-        <v>1923.238460482769</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.747751403371</v>
+        <v>2080.089775129883</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C3" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D3" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E3" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G3" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I3" t="n">
-        <v>62.11912770411552</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J3" t="n">
-        <v>175.2341099238429</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K3" t="n">
-        <v>494.9732559860694</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L3" t="n">
-        <v>978.5393418843826</v>
+        <v>1704.041064410407</v>
       </c>
       <c r="M3" t="n">
-        <v>1606.310991511064</v>
+        <v>2331.812714037089</v>
       </c>
       <c r="N3" t="n">
-        <v>1606.310991511064</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q3" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R3" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S3" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T3" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U3" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V3" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W3" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X3" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y3" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.11912770411552</v>
+        <v>387.699116391697</v>
       </c>
       <c r="C4" t="n">
-        <v>62.11912770411552</v>
+        <v>387.699116391697</v>
       </c>
       <c r="D4" t="n">
-        <v>62.11912770411552</v>
+        <v>387.699116391697</v>
       </c>
       <c r="E4" t="n">
-        <v>62.11912770411552</v>
+        <v>387.699116391697</v>
       </c>
       <c r="F4" t="n">
-        <v>62.11912770411552</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G4" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
         <v>143.9541688140574</v>
@@ -4515,25 +4515,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>806.3890324773372</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>570.6699806455713</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>285.2311888874722</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>285.2311888874722</v>
+        <v>905.1098406775363</v>
       </c>
       <c r="W4" t="n">
-        <v>285.2311888874722</v>
+        <v>621.7794386087139</v>
       </c>
       <c r="X4" t="n">
-        <v>285.2311888874722</v>
+        <v>387.699116391697</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.11912770411552</v>
+        <v>387.699116391697</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2535.796644191037</v>
+        <v>1636.253270280022</v>
       </c>
       <c r="C5" t="n">
-        <v>2142.621142693967</v>
+        <v>1636.253270280022</v>
       </c>
       <c r="D5" t="n">
-        <v>1757.180013910635</v>
+        <v>1636.253270280022</v>
       </c>
       <c r="E5" t="n">
         <v>1354.596489027179</v>
@@ -4597,22 +4597,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2901.449916432349</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>2901.449916432349</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>2901.449916432349</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W5" t="n">
-        <v>2901.449916432349</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X5" t="n">
-        <v>2901.449916432349</v>
+        <v>2032.743979359421</v>
       </c>
       <c r="Y5" t="n">
-        <v>2901.449916432349</v>
+        <v>1636.253270280022</v>
       </c>
     </row>
     <row r="6">
@@ -4655,10 +4655,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="M6" t="n">
-        <v>1122.744905612751</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N6" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O6" t="n">
         <v>1740.468202408463</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
         <v>62.11912770411553</v>
@@ -4752,25 +4752,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>963.5661502456679</v>
+        <v>849.2563164731562</v>
       </c>
       <c r="T7" t="n">
-        <v>727.847098413902</v>
+        <v>613.5372646413903</v>
       </c>
       <c r="U7" t="n">
-        <v>727.847098413902</v>
+        <v>328.0984728832913</v>
       </c>
       <c r="V7" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W7" t="n">
-        <v>444.5166963450797</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X7" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1609.434873616714</v>
+        <v>2060.256304862035</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.259372119644</v>
+        <v>1667.080803364966</v>
       </c>
       <c r="D8" t="n">
-        <v>1216.259372119644</v>
+        <v>1281.639674581633</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.259372119644</v>
+        <v>879.0561496981777</v>
       </c>
       <c r="F8" t="n">
-        <v>799.3649336496217</v>
+        <v>462.1617112281555</v>
       </c>
       <c r="G8" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4822,34 +4822,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P8" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q8" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T8" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U8" t="n">
-        <v>2901.449916432348</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V8" t="n">
-        <v>2559.343107135867</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="W8" t="n">
-        <v>2188.344072104154</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.344072104154</v>
+        <v>2460.751050573432</v>
       </c>
       <c r="Y8" t="n">
-        <v>2009.92961932811</v>
+        <v>2460.751050573432</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L9" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M9" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.11912770411552</v>
+        <v>876.9357420033255</v>
       </c>
       <c r="C10" t="n">
-        <v>62.11912770411552</v>
+        <v>706.7306240693147</v>
       </c>
       <c r="D10" t="n">
-        <v>62.11912770411552</v>
+        <v>706.7306240693147</v>
       </c>
       <c r="E10" t="n">
-        <v>62.11912770411552</v>
+        <v>551.1718119285172</v>
       </c>
       <c r="F10" t="n">
-        <v>62.11912770411552</v>
+        <v>393.8458771414902</v>
       </c>
       <c r="G10" t="n">
-        <v>62.11912770411552</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="H10" t="n">
-        <v>62.11912770411552</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I10" t="n">
-        <v>62.11912770411552</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K10" t="n">
         <v>143.9541688140574</v>
@@ -4989,25 +4989,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>849.2563164731562</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>613.5372646413903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>328.0984728832913</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>62.11912770411552</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>62.11912770411552</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>62.11912770411552</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.11912770411552</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>650.8442683503863</v>
+        <v>2239.750670436109</v>
       </c>
       <c r="C11" t="n">
-        <v>257.6687668533169</v>
+        <v>2139.82672216927</v>
       </c>
       <c r="D11" t="n">
-        <v>64.49589826557825</v>
+        <v>1754.385593385938</v>
       </c>
       <c r="E11" t="n">
-        <v>64.49589826557825</v>
+        <v>1351.802068502483</v>
       </c>
       <c r="F11" t="n">
-        <v>64.49589826557825</v>
+        <v>934.9076300324605</v>
       </c>
       <c r="G11" t="n">
-        <v>64.49589826557825</v>
+        <v>521.8487267325617</v>
       </c>
       <c r="H11" t="n">
-        <v>64.49589826557825</v>
+        <v>198.8292527662019</v>
       </c>
       <c r="I11" t="n">
         <v>64.49589826557825</v>
       </c>
       <c r="J11" t="n">
-        <v>217.7845927599042</v>
+        <v>217.7845927599039</v>
       </c>
       <c r="K11" t="n">
-        <v>589.7144528346271</v>
+        <v>589.714452834627</v>
       </c>
       <c r="L11" t="n">
-        <v>1099.097268220408</v>
+        <v>1099.097268220407</v>
       </c>
       <c r="M11" t="n">
         <v>1662.970820761779</v>
       </c>
       <c r="N11" t="n">
-        <v>2208.943955098713</v>
+        <v>2208.943955098712</v>
       </c>
       <c r="O11" t="n">
         <v>2666.1332765971</v>
@@ -5062,31 +5062,31 @@
         <v>3028.957658493084</v>
       </c>
       <c r="Q11" t="n">
-        <v>3224.794913278913</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="R11" t="n">
-        <v>3193.325606082641</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="S11" t="n">
-        <v>3029.178583306877</v>
+        <v>3060.647890503148</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.132593924753</v>
+        <v>2837.601901121024</v>
       </c>
       <c r="U11" t="n">
-        <v>2550.388172536319</v>
+        <v>2581.85747973259</v>
       </c>
       <c r="V11" t="n">
-        <v>2208.281363239838</v>
+        <v>2239.750670436109</v>
       </c>
       <c r="W11" t="n">
-        <v>1837.282328208125</v>
+        <v>2239.750670436109</v>
       </c>
       <c r="X11" t="n">
-        <v>1447.829723141182</v>
+        <v>2239.750670436109</v>
       </c>
       <c r="Y11" t="n">
-        <v>1051.339014061783</v>
+        <v>2239.750670436109</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>64.49589826557825</v>
       </c>
       <c r="J12" t="n">
-        <v>182.7561629990903</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="K12" t="n">
-        <v>511.2894164059159</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="L12" t="n">
-        <v>1006.680264889295</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="M12" t="n">
-        <v>1430.117831882899</v>
+        <v>518.8588315998736</v>
       </c>
       <c r="N12" t="n">
-        <v>1430.117831882899</v>
+        <v>1188.800959896219</v>
       </c>
       <c r="O12" t="n">
-        <v>1959.595551014675</v>
+        <v>1718.278679027995</v>
       </c>
       <c r="P12" t="n">
-        <v>2375.616404902846</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="Q12" t="n">
         <v>2375.616404902846</v>
@@ -5205,37 +5205,37 @@
         <v>151.6355101603017</v>
       </c>
       <c r="L13" t="n">
-        <v>322.5511743388213</v>
+        <v>322.5511743388212</v>
       </c>
       <c r="M13" t="n">
-        <v>515.9997725551752</v>
+        <v>515.999772555175</v>
       </c>
       <c r="N13" t="n">
-        <v>706.1762485284994</v>
+        <v>706.1762485284992</v>
       </c>
       <c r="O13" t="n">
-        <v>875.3344949568885</v>
+        <v>875.3344949568883</v>
       </c>
       <c r="P13" t="n">
-        <v>1000.732727221788</v>
+        <v>1000.732727221787</v>
       </c>
       <c r="Q13" t="n">
-        <v>1007.978116197365</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="R13" t="n">
-        <v>886.1717365669577</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="S13" t="n">
-        <v>684.1674940082738</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="T13" t="n">
-        <v>448.6474851559656</v>
+        <v>772.4581073450561</v>
       </c>
       <c r="U13" t="n">
-        <v>163.2112343720723</v>
+        <v>487.0218565611628</v>
       </c>
       <c r="V13" t="n">
-        <v>64.49589826557825</v>
+        <v>221.0425113819871</v>
       </c>
       <c r="W13" t="n">
         <v>64.49589826557825</v>
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2533.00222366634</v>
+        <v>1277.587724770532</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.82672216927</v>
+        <v>884.4122232734626</v>
       </c>
       <c r="D14" t="n">
-        <v>1754.385593385938</v>
+        <v>884.4122232734626</v>
       </c>
       <c r="E14" t="n">
-        <v>1351.802068502483</v>
+        <v>481.8286983900071</v>
       </c>
       <c r="F14" t="n">
-        <v>934.9076300324605</v>
+        <v>64.93425991998487</v>
       </c>
       <c r="G14" t="n">
-        <v>521.8487267325617</v>
+        <v>64.93425991998487</v>
       </c>
       <c r="H14" t="n">
-        <v>198.8292527662019</v>
+        <v>64.93425991998487</v>
       </c>
       <c r="I14" t="n">
         <v>64.49589826557825</v>
       </c>
       <c r="J14" t="n">
-        <v>217.7845927599039</v>
+        <v>217.7845927599042</v>
       </c>
       <c r="K14" t="n">
-        <v>589.7144528346269</v>
+        <v>589.7144528346271</v>
       </c>
       <c r="L14" t="n">
         <v>1099.097268220407</v>
@@ -5299,31 +5299,31 @@
         <v>3028.957658493084</v>
       </c>
       <c r="Q14" t="n">
-        <v>3224.794913278913</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="R14" t="n">
-        <v>3224.794913278913</v>
+        <v>3193.325606082641</v>
       </c>
       <c r="S14" t="n">
-        <v>3224.794913278913</v>
+        <v>3029.178583306877</v>
       </c>
       <c r="T14" t="n">
-        <v>3224.794913278913</v>
+        <v>2806.132593924753</v>
       </c>
       <c r="U14" t="n">
-        <v>3224.794913278913</v>
+        <v>2806.132593924753</v>
       </c>
       <c r="V14" t="n">
-        <v>3224.794913278913</v>
+        <v>2464.025784628271</v>
       </c>
       <c r="W14" t="n">
-        <v>3224.794913278913</v>
+        <v>2464.025784628271</v>
       </c>
       <c r="X14" t="n">
-        <v>3224.794913278913</v>
+        <v>2074.573179561328</v>
       </c>
       <c r="Y14" t="n">
-        <v>2933.496969377737</v>
+        <v>1678.082470481929</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>64.49589826557825</v>
       </c>
       <c r="J15" t="n">
-        <v>64.49589826557825</v>
+        <v>182.7561629990903</v>
       </c>
       <c r="K15" t="n">
-        <v>393.0291516724038</v>
+        <v>511.2894164059157</v>
       </c>
       <c r="L15" t="n">
-        <v>888.4200001557832</v>
+        <v>1006.680264889295</v>
       </c>
       <c r="M15" t="n">
-        <v>1529.990589981217</v>
+        <v>1648.250854714729</v>
       </c>
       <c r="N15" t="n">
-        <v>1529.990589981217</v>
+        <v>1718.278679027995</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.595551014675</v>
+        <v>1718.278679027995</v>
       </c>
       <c r="P15" t="n">
-        <v>2375.616404902846</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="Q15" t="n">
         <v>2375.616404902846</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1007.978116197365</v>
+        <v>520.5376228547872</v>
       </c>
       <c r="C16" t="n">
-        <v>1007.978116197365</v>
+        <v>350.3325049207764</v>
       </c>
       <c r="D16" t="n">
-        <v>859.4307325013299</v>
+        <v>350.3325049207764</v>
       </c>
       <c r="E16" t="n">
-        <v>703.8719203605324</v>
+        <v>194.7736927799789</v>
       </c>
       <c r="F16" t="n">
-        <v>546.5459855735053</v>
+        <v>194.7736927799789</v>
       </c>
       <c r="G16" t="n">
-        <v>378.3385162000579</v>
+        <v>194.7736927799789</v>
       </c>
       <c r="H16" t="n">
-        <v>223.2741439571043</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="I16" t="n">
-        <v>91.58064237300337</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="J16" t="n">
         <v>64.49589826557825</v>
@@ -5442,46 +5442,46 @@
         <v>151.6355101603017</v>
       </c>
       <c r="L16" t="n">
-        <v>322.5511743388213</v>
+        <v>322.5511743388212</v>
       </c>
       <c r="M16" t="n">
-        <v>515.9997725551752</v>
+        <v>515.999772555175</v>
       </c>
       <c r="N16" t="n">
-        <v>706.1762485284994</v>
+        <v>706.1762485284992</v>
       </c>
       <c r="O16" t="n">
-        <v>875.3344949568885</v>
+        <v>875.3344949568883</v>
       </c>
       <c r="P16" t="n">
-        <v>1000.732727221788</v>
+        <v>1000.732727221787</v>
       </c>
       <c r="Q16" t="n">
-        <v>1007.978116197365</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="R16" t="n">
-        <v>1007.978116197365</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="S16" t="n">
-        <v>1007.978116197365</v>
+        <v>805.9738736386804</v>
       </c>
       <c r="T16" t="n">
-        <v>1007.978116197365</v>
+        <v>805.9738736386804</v>
       </c>
       <c r="U16" t="n">
-        <v>1007.978116197365</v>
+        <v>520.5376228547872</v>
       </c>
       <c r="V16" t="n">
-        <v>1007.978116197365</v>
+        <v>520.5376228547872</v>
       </c>
       <c r="W16" t="n">
-        <v>1007.978116197365</v>
+        <v>520.5376228547872</v>
       </c>
       <c r="X16" t="n">
-        <v>1007.978116197365</v>
+        <v>520.5376228547872</v>
       </c>
       <c r="Y16" t="n">
-        <v>1007.978116197365</v>
+        <v>520.5376228547872</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>843.11252854598</v>
+        <v>1667.35781838946</v>
       </c>
       <c r="C17" t="n">
-        <v>449.9370270489105</v>
+        <v>1274.182316892391</v>
       </c>
       <c r="D17" t="n">
-        <v>64.49589826557825</v>
+        <v>888.7411881090586</v>
       </c>
       <c r="E17" t="n">
-        <v>64.49589826557825</v>
+        <v>486.1576632256031</v>
       </c>
       <c r="F17" t="n">
-        <v>64.49589826557825</v>
+        <v>486.1576632256031</v>
       </c>
       <c r="G17" t="n">
-        <v>64.49589826557825</v>
+        <v>73.09875992570437</v>
       </c>
       <c r="H17" t="n">
-        <v>64.49589826557825</v>
+        <v>73.09875992570437</v>
       </c>
       <c r="I17" t="n">
         <v>64.49589826557825</v>
       </c>
       <c r="J17" t="n">
-        <v>217.7845927599042</v>
+        <v>217.7845927599039</v>
       </c>
       <c r="K17" t="n">
-        <v>589.7144528346271</v>
+        <v>589.7144528346269</v>
       </c>
       <c r="L17" t="n">
-        <v>1099.097268220408</v>
+        <v>1099.097268220407</v>
       </c>
       <c r="M17" t="n">
-        <v>1662.970820761779</v>
+        <v>1662.970820761778</v>
       </c>
       <c r="N17" t="n">
-        <v>2208.943955098713</v>
+        <v>2208.943955098712</v>
       </c>
       <c r="O17" t="n">
-        <v>2666.1332765971</v>
+        <v>2666.133276597099</v>
       </c>
       <c r="P17" t="n">
         <v>3028.957658493084</v>
       </c>
       <c r="Q17" t="n">
-        <v>3224.794913278913</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="R17" t="n">
-        <v>3224.794913278913</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="S17" t="n">
-        <v>3060.647890503149</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="T17" t="n">
-        <v>2998.400854120347</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="U17" t="n">
-        <v>2742.656432731913</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="V17" t="n">
-        <v>2400.549623435431</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="W17" t="n">
-        <v>2029.550588403719</v>
+        <v>2853.7958782472</v>
       </c>
       <c r="X17" t="n">
-        <v>1640.097983336776</v>
+        <v>2464.343273180256</v>
       </c>
       <c r="Y17" t="n">
-        <v>1243.607274257377</v>
+        <v>2067.852564100857</v>
       </c>
     </row>
     <row r="18">
@@ -5597,13 +5597,13 @@
         <v>182.7561629990903</v>
       </c>
       <c r="K18" t="n">
-        <v>182.7561629990903</v>
+        <v>511.2894164059157</v>
       </c>
       <c r="L18" t="n">
-        <v>182.7561629990903</v>
+        <v>1006.680264889295</v>
       </c>
       <c r="M18" t="n">
-        <v>518.8588315998736</v>
+        <v>1006.680264889295</v>
       </c>
       <c r="N18" t="n">
         <v>1188.800959896219</v>
@@ -5679,43 +5679,43 @@
         <v>151.6355101603017</v>
       </c>
       <c r="L19" t="n">
-        <v>322.5511743388213</v>
+        <v>322.5511743388212</v>
       </c>
       <c r="M19" t="n">
-        <v>515.9997725551752</v>
+        <v>515.999772555175</v>
       </c>
       <c r="N19" t="n">
-        <v>706.1762485284994</v>
+        <v>706.1762485284992</v>
       </c>
       <c r="O19" t="n">
-        <v>875.3344949568885</v>
+        <v>875.3344949568883</v>
       </c>
       <c r="P19" t="n">
-        <v>1000.732727221788</v>
+        <v>1000.732727221787</v>
       </c>
       <c r="Q19" t="n">
-        <v>1007.978116197365</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="R19" t="n">
-        <v>886.1717365669577</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="S19" t="n">
-        <v>886.1717365669577</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="T19" t="n">
-        <v>886.1717365669577</v>
+        <v>899.2418962974696</v>
       </c>
       <c r="U19" t="n">
-        <v>805.0186837347742</v>
+        <v>613.8056455135763</v>
       </c>
       <c r="V19" t="n">
-        <v>805.0186837347742</v>
+        <v>347.8263003344006</v>
       </c>
       <c r="W19" t="n">
-        <v>521.6882816659518</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="X19" t="n">
-        <v>287.6079594489349</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="Y19" t="n">
         <v>64.49589826557825</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2398.668869165716</v>
+        <v>1690.208266416024</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.493367668647</v>
+        <v>1297.032764918955</v>
       </c>
       <c r="D20" t="n">
-        <v>1620.052238885315</v>
+        <v>1297.032764918955</v>
       </c>
       <c r="E20" t="n">
-        <v>1217.468714001859</v>
+        <v>894.4492400354993</v>
       </c>
       <c r="F20" t="n">
-        <v>800.5742755318367</v>
+        <v>477.554801565477</v>
       </c>
       <c r="G20" t="n">
-        <v>387.515372231938</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="H20" t="n">
         <v>64.49589826557825</v>
@@ -5752,10 +5752,10 @@
         <v>64.49589826557825</v>
       </c>
       <c r="J20" t="n">
-        <v>217.7845927599039</v>
+        <v>217.7845927599037</v>
       </c>
       <c r="K20" t="n">
-        <v>589.7144528346269</v>
+        <v>589.7144528346267</v>
       </c>
       <c r="L20" t="n">
         <v>1099.097268220407</v>
@@ -5770,34 +5770,34 @@
         <v>2666.133276597099</v>
       </c>
       <c r="P20" t="n">
-        <v>3028.957658493083</v>
+        <v>3028.957658493084</v>
       </c>
       <c r="Q20" t="n">
-        <v>3224.794913278913</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="R20" t="n">
-        <v>3195.654323956512</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="S20" t="n">
-        <v>3195.654323956512</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="T20" t="n">
-        <v>3195.654323956512</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="U20" t="n">
-        <v>3195.654323956512</v>
+        <v>2969.050491890478</v>
       </c>
       <c r="V20" t="n">
-        <v>3195.654323956512</v>
+        <v>2969.050491890478</v>
       </c>
       <c r="W20" t="n">
-        <v>3195.654323956512</v>
+        <v>2876.646326273763</v>
       </c>
       <c r="X20" t="n">
-        <v>3195.654323956512</v>
+        <v>2487.19372120682</v>
       </c>
       <c r="Y20" t="n">
-        <v>2799.163614877113</v>
+        <v>2090.703012127421</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>64.49589826557825</v>
       </c>
       <c r="K21" t="n">
-        <v>64.49589826557825</v>
+        <v>393.0291516724038</v>
       </c>
       <c r="L21" t="n">
-        <v>559.8867467489576</v>
+        <v>888.4200001557831</v>
       </c>
       <c r="M21" t="n">
-        <v>1201.457336574392</v>
+        <v>888.4200001557831</v>
       </c>
       <c r="N21" t="n">
-        <v>1871.399464870737</v>
+        <v>1430.117831882899</v>
       </c>
       <c r="O21" t="n">
-        <v>2375.616404902846</v>
+        <v>1959.595551014675</v>
       </c>
       <c r="P21" t="n">
         <v>2375.616404902846</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.2321181654732</v>
+        <v>273.4603502580649</v>
       </c>
       <c r="C22" t="n">
-        <v>173.2321181654732</v>
+        <v>103.2552323240541</v>
       </c>
       <c r="D22" t="n">
-        <v>173.2321181654732</v>
+        <v>103.2552323240541</v>
       </c>
       <c r="E22" t="n">
-        <v>64.49589826557825</v>
+        <v>103.2552323240541</v>
       </c>
       <c r="F22" t="n">
-        <v>64.49589826557825</v>
+        <v>103.2552323240541</v>
       </c>
       <c r="G22" t="n">
         <v>64.49589826557825</v>
@@ -5916,46 +5916,46 @@
         <v>151.6355101603017</v>
       </c>
       <c r="L22" t="n">
-        <v>322.5511743388213</v>
+        <v>322.5511743388212</v>
       </c>
       <c r="M22" t="n">
-        <v>515.9997725551752</v>
+        <v>515.999772555175</v>
       </c>
       <c r="N22" t="n">
-        <v>706.1762485284994</v>
+        <v>706.1762485284992</v>
       </c>
       <c r="O22" t="n">
-        <v>875.3344949568885</v>
+        <v>875.3344949568883</v>
       </c>
       <c r="P22" t="n">
-        <v>1000.732727221788</v>
+        <v>1000.732727221787</v>
       </c>
       <c r="Q22" t="n">
-        <v>1007.978116197365</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="R22" t="n">
-        <v>1007.978116197365</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="S22" t="n">
-        <v>1007.978116197365</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="T22" t="n">
-        <v>1007.978116197365</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="U22" t="n">
-        <v>722.5418654134713</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="V22" t="n">
-        <v>456.5625202342956</v>
+        <v>741.9987710181886</v>
       </c>
       <c r="W22" t="n">
-        <v>173.2321181654732</v>
+        <v>458.6683689493662</v>
       </c>
       <c r="X22" t="n">
-        <v>173.2321181654732</v>
+        <v>458.6683689493662</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.2321181654732</v>
+        <v>458.6683689493662</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1280.880323684673</v>
+        <v>1642.813329737747</v>
       </c>
       <c r="C23" t="n">
-        <v>1280.880323684673</v>
+        <v>1249.637828240677</v>
       </c>
       <c r="D23" t="n">
-        <v>895.4391949013411</v>
+        <v>864.1966994573449</v>
       </c>
       <c r="E23" t="n">
-        <v>492.8556700178857</v>
+        <v>810.7445441422649</v>
       </c>
       <c r="F23" t="n">
-        <v>75.96123154786345</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="G23" t="n">
-        <v>75.96123154786345</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H23" t="n">
         <v>75.96123154786345</v>
@@ -5989,10 +5989,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130498</v>
       </c>
       <c r="L23" t="n">
         <v>1292.177839612517</v>
@@ -6016,25 +6016,25 @@
         <v>3798.061577393172</v>
       </c>
       <c r="S23" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="T23" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="U23" t="n">
-        <v>3180.424227870607</v>
+        <v>3542.35723392368</v>
       </c>
       <c r="V23" t="n">
-        <v>2838.317418574125</v>
+        <v>3200.250424627198</v>
       </c>
       <c r="W23" t="n">
-        <v>2467.318383542412</v>
+        <v>2829.251389595486</v>
       </c>
       <c r="X23" t="n">
-        <v>2077.865778475469</v>
+        <v>2439.798784528542</v>
       </c>
       <c r="Y23" t="n">
-        <v>1681.37506939607</v>
+        <v>2043.308075449144</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L24" t="n">
-        <v>313.8895596758445</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M24" t="n">
-        <v>1022.025029968184</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.39875954305342</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C25" t="n">
         <v>75.96123154786345</v>
@@ -6174,25 +6174,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S25" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T25" t="n">
-        <v>1024.129563703551</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U25" t="n">
-        <v>1024.129563703551</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.129563703551</v>
+        <v>593.3719558337027</v>
       </c>
       <c r="W25" t="n">
-        <v>740.7991616347283</v>
+        <v>310.0415537648803</v>
       </c>
       <c r="X25" t="n">
-        <v>506.7188394177114</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="Y25" t="n">
-        <v>283.6067782343547</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2519.522183495031</v>
+        <v>1684.030229611419</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.346681997961</v>
+        <v>1290.854728114349</v>
       </c>
       <c r="D26" t="n">
-        <v>1740.905553214629</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="E26" t="n">
-        <v>1338.322028331173</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F26" t="n">
-        <v>921.4275898611513</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G26" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H26" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K26" t="n">
         <v>705.3108151130497</v>
@@ -6238,40 +6238,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N26" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O26" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R26" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340869</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.477523585819</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.773180116326</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V26" t="n">
-        <v>3168.773180116326</v>
+        <v>3082.370714289336</v>
       </c>
       <c r="W26" t="n">
-        <v>3168.773180116326</v>
+        <v>2711.371679257624</v>
       </c>
       <c r="X26" t="n">
-        <v>3168.773180116326</v>
+        <v>2321.91907419068</v>
       </c>
       <c r="Y26" t="n">
-        <v>2920.016929206427</v>
+        <v>1925.428365111282</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K27" t="n">
-        <v>75.96123154786346</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L27" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N27" t="n">
-        <v>2074.797953750985</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O27" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P27" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q27" t="n">
         <v>2352.277072610002</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2975.346815726318</v>
+        <v>592.6251445623379</v>
       </c>
       <c r="C28" t="n">
-        <v>2975.346815726318</v>
+        <v>592.6251445623379</v>
       </c>
       <c r="D28" t="n">
-        <v>2975.346815726318</v>
+        <v>436.9920314648527</v>
       </c>
       <c r="E28" t="n">
-        <v>2819.788003585521</v>
+        <v>436.9920314648527</v>
       </c>
       <c r="F28" t="n">
-        <v>2819.788003585521</v>
+        <v>436.9920314648527</v>
       </c>
       <c r="G28" t="n">
-        <v>2651.805253895891</v>
+        <v>269.0092817752237</v>
       </c>
       <c r="H28" t="n">
-        <v>2651.805253895891</v>
+        <v>115.9428718120369</v>
       </c>
       <c r="I28" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J28" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K28" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L28" t="n">
-        <v>2968.19415089026</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M28" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N28" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O28" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P28" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q28" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R28" t="n">
-        <v>3686.359411909727</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S28" t="n">
-        <v>3488.271420568132</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="T28" t="n">
-        <v>3253.711577637593</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="U28" t="n">
-        <v>3160.554834417619</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="V28" t="n">
-        <v>3160.554834417619</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="W28" t="n">
-        <v>3160.554834417619</v>
+        <v>592.6251445623379</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.554834417619</v>
+        <v>592.6251445623379</v>
       </c>
       <c r="Y28" t="n">
-        <v>3160.554834417619</v>
+        <v>592.6251445623379</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1269.229275930392</v>
+        <v>2135.066198310892</v>
       </c>
       <c r="C29" t="n">
-        <v>876.0537744333228</v>
+        <v>1741.890696813823</v>
       </c>
       <c r="D29" t="n">
-        <v>603.5387157367721</v>
+        <v>1356.44956803049</v>
       </c>
       <c r="E29" t="n">
-        <v>603.5387157367721</v>
+        <v>953.8660431470348</v>
       </c>
       <c r="F29" t="n">
-        <v>603.5387157367721</v>
+        <v>536.9716046770126</v>
       </c>
       <c r="G29" t="n">
-        <v>190.9807864236407</v>
+        <v>124.4136753638811</v>
       </c>
       <c r="H29" t="n">
-        <v>190.9807864236407</v>
+        <v>124.4136753638811</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874842</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130497</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L29" t="n">
         <v>1292.177839612517</v>
@@ -6481,34 +6481,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S29" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.477523585818</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.773180116325</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="V29" t="n">
-        <v>2826.666370819844</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="W29" t="n">
-        <v>2455.667335788131</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="X29" t="n">
-        <v>2066.214730721188</v>
+        <v>2932.051653101688</v>
       </c>
       <c r="Y29" t="n">
-        <v>1669.724021641789</v>
+        <v>2535.560944022289</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L30" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N30" t="n">
-        <v>2074.797953750985</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O30" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P30" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1007.602527016631</v>
+        <v>709.9694390851914</v>
       </c>
       <c r="C31" t="n">
-        <v>837.3974090826198</v>
+        <v>709.9694390851914</v>
       </c>
       <c r="D31" t="n">
-        <v>681.7642959851346</v>
+        <v>554.3363259877062</v>
       </c>
       <c r="E31" t="n">
-        <v>526.2054838443371</v>
+        <v>554.3363259877062</v>
       </c>
       <c r="F31" t="n">
-        <v>368.8795490573101</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="G31" t="n">
-        <v>200.8967993676811</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H31" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I31" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J31" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K31" t="n">
         <v>188.6896288950475</v>
@@ -6648,25 +6648,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S31" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T31" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U31" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="V31" t="n">
-        <v>1024.129563703551</v>
+        <v>956.2382098659697</v>
       </c>
       <c r="W31" t="n">
-        <v>1024.129563703551</v>
+        <v>709.9694390851914</v>
       </c>
       <c r="X31" t="n">
-        <v>1024.129563703551</v>
+        <v>709.9694390851914</v>
       </c>
       <c r="Y31" t="n">
-        <v>1024.129563703551</v>
+        <v>709.9694390851914</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1677.664697452189</v>
+        <v>1867.040428696366</v>
       </c>
       <c r="C32" t="n">
-        <v>1284.48919595512</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="D32" t="n">
-        <v>899.0480671717876</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="E32" t="n">
-        <v>496.4645422883321</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="F32" t="n">
-        <v>190.9807864236407</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="G32" t="n">
-        <v>190.9807864236407</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="H32" t="n">
         <v>190.9807864236407</v>
@@ -6721,31 +6721,31 @@
         <v>3549.201349130635</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S32" t="n">
-        <v>3798.061577393173</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T32" t="n">
-        <v>3577.208601638123</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U32" t="n">
-        <v>3577.208601638123</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V32" t="n">
-        <v>3235.101792341641</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="W32" t="n">
-        <v>2864.102757309929</v>
+        <v>3053.478488554105</v>
       </c>
       <c r="X32" t="n">
-        <v>2474.650152242985</v>
+        <v>2664.025883487162</v>
       </c>
       <c r="Y32" t="n">
-        <v>2078.159443163586</v>
+        <v>2267.535174407763</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L33" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N33" t="n">
-        <v>2074.797953750985</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.6842095071841</v>
+        <v>524.1683272648787</v>
       </c>
       <c r="C34" t="n">
-        <v>544.4790915731733</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="D34" t="n">
-        <v>388.845978475688</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="E34" t="n">
-        <v>233.2871663348905</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="F34" t="n">
-        <v>75.96123154786345</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="G34" t="n">
-        <v>75.96123154786345</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H34" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I34" t="n">
         <v>75.96123154786345</v>
@@ -6882,28 +6882,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R34" t="n">
-        <v>1222.217555045145</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S34" t="n">
-        <v>1222.217555045145</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="T34" t="n">
-        <v>1222.217555045145</v>
+        <v>1013.259733627411</v>
       </c>
       <c r="U34" t="n">
-        <v>1222.217555045145</v>
+        <v>1013.259733627411</v>
       </c>
       <c r="V34" t="n">
-        <v>1222.217555045145</v>
+        <v>747.2803884482354</v>
       </c>
       <c r="W34" t="n">
-        <v>1222.217555045145</v>
+        <v>747.2803884482354</v>
       </c>
       <c r="X34" t="n">
-        <v>1123.004289381842</v>
+        <v>747.2803884482354</v>
       </c>
       <c r="Y34" t="n">
-        <v>899.8922281984853</v>
+        <v>524.1683272648787</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2519.522183495031</v>
+        <v>2134.081054711698</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.346681997961</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="D35" t="n">
         <v>1740.905553214629</v>
@@ -6934,13 +6934,13 @@
         <v>190.9807864236407</v>
       </c>
       <c r="I35" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874842</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130492</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6961,28 +6961,28 @@
         <v>3798.061577393173</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S35" t="n">
-        <v>3705.96024335277</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="T35" t="n">
-        <v>3705.96024335277</v>
+        <v>3576.223458038929</v>
       </c>
       <c r="U35" t="n">
-        <v>3705.96024335277</v>
+        <v>3320.519114569438</v>
       </c>
       <c r="V35" t="n">
-        <v>3705.96024335277</v>
+        <v>3320.519114569438</v>
       </c>
       <c r="W35" t="n">
-        <v>3705.96024335277</v>
+        <v>3320.519114569438</v>
       </c>
       <c r="X35" t="n">
-        <v>3316.507638285826</v>
+        <v>2931.066509502494</v>
       </c>
       <c r="Y35" t="n">
-        <v>2920.016929206427</v>
+        <v>2534.575800423095</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I36" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L36" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N36" t="n">
-        <v>2074.797953750985</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2809.131188682918</v>
+        <v>521.945959020497</v>
       </c>
       <c r="C37" t="n">
-        <v>2809.131188682918</v>
+        <v>521.945959020497</v>
       </c>
       <c r="D37" t="n">
-        <v>2809.131188682918</v>
+        <v>521.945959020497</v>
       </c>
       <c r="E37" t="n">
-        <v>2809.131188682918</v>
+        <v>521.945959020497</v>
       </c>
       <c r="F37" t="n">
-        <v>2651.80525389589</v>
+        <v>521.945959020497</v>
       </c>
       <c r="G37" t="n">
-        <v>2651.80525389589</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H37" t="n">
-        <v>2651.80525389589</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="I37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J37" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K37" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L37" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M37" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N37" t="n">
-        <v>3420.047977276967</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O37" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P37" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q37" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R37" t="n">
-        <v>3686.359411909726</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S37" t="n">
-        <v>3488.271420568131</v>
+        <v>973.133322890974</v>
       </c>
       <c r="T37" t="n">
-        <v>3253.711577637592</v>
+        <v>973.133322890974</v>
       </c>
       <c r="U37" t="n">
-        <v>2994.339207374219</v>
+        <v>973.133322890974</v>
       </c>
       <c r="V37" t="n">
-        <v>2994.339207374219</v>
+        <v>707.1539777117982</v>
       </c>
       <c r="W37" t="n">
-        <v>2994.339207374219</v>
+        <v>707.1539777117982</v>
       </c>
       <c r="X37" t="n">
-        <v>2994.339207374219</v>
+        <v>707.1539777117982</v>
       </c>
       <c r="Y37" t="n">
-        <v>2994.339207374219</v>
+        <v>707.1539777117982</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1328.347623901498</v>
+        <v>2029.680916029048</v>
       </c>
       <c r="C38" t="n">
-        <v>1328.347623901498</v>
+        <v>2011.327127122184</v>
       </c>
       <c r="D38" t="n">
-        <v>1328.347623901498</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E38" t="n">
-        <v>925.7640990180421</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F38" t="n">
-        <v>508.8696605480199</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G38" t="n">
-        <v>508.8696605480199</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H38" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I38" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874832</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130491</v>
       </c>
       <c r="L38" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M38" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N38" t="n">
         <v>2575.851817818621</v>
@@ -7213,13 +7213,13 @@
         <v>2826.666370819844</v>
       </c>
       <c r="W38" t="n">
-        <v>2455.667335788131</v>
+        <v>2826.666370819844</v>
       </c>
       <c r="X38" t="n">
-        <v>2066.214730721188</v>
+        <v>2826.666370819844</v>
       </c>
       <c r="Y38" t="n">
-        <v>1669.724021641789</v>
+        <v>2430.175661740445</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L39" t="n">
-        <v>313.8895596758445</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M39" t="n">
-        <v>1022.025029968184</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O39" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.3582747201569</v>
+        <v>492.6595365982643</v>
       </c>
       <c r="C40" t="n">
-        <v>387.1531567861462</v>
+        <v>322.4544186642535</v>
       </c>
       <c r="D40" t="n">
-        <v>231.520043688661</v>
+        <v>322.4544186642535</v>
       </c>
       <c r="E40" t="n">
-        <v>75.96123154786345</v>
+        <v>322.4544186642535</v>
       </c>
       <c r="F40" t="n">
-        <v>75.96123154786345</v>
+        <v>322.4544186642535</v>
       </c>
       <c r="G40" t="n">
-        <v>75.96123154786345</v>
+        <v>322.4544186642535</v>
       </c>
       <c r="H40" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I40" t="n">
         <v>75.96123154786345</v>
@@ -7359,25 +7359,25 @@
         <v>1110.515389561699</v>
       </c>
       <c r="S40" t="n">
-        <v>1110.515389561699</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="T40" t="n">
-        <v>1110.515389561699</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="U40" t="n">
-        <v>825.0913962151051</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="V40" t="n">
-        <v>825.0913962151051</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="W40" t="n">
-        <v>825.0913962151051</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="X40" t="n">
-        <v>825.0913962151051</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.5662934114582</v>
+        <v>677.8675552895655</v>
       </c>
     </row>
     <row r="41">
@@ -7411,10 +7411,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K41" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130498</v>
       </c>
       <c r="L41" t="n">
         <v>1292.177839612517</v>
@@ -7429,31 +7429,31 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q41" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R41" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S41" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="T41" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="U41" t="n">
-        <v>3565.449014429306</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="V41" t="n">
-        <v>3565.449014429306</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="W41" t="n">
-        <v>3194.449979397594</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="X41" t="n">
-        <v>2804.99737433065</v>
+        <v>3201.48808341005</v>
       </c>
       <c r="Y41" t="n">
         <v>2804.99737433065</v>
@@ -7490,22 +7490,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J42" t="n">
-        <v>219.0418890481681</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K42" t="n">
-        <v>589.997147027437</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="L42" t="n">
-        <v>1142.429615858993</v>
+        <v>628.3937003794192</v>
       </c>
       <c r="M42" t="n">
-        <v>1294.106752377725</v>
+        <v>1336.529170671759</v>
       </c>
       <c r="N42" t="n">
-        <v>1294.106752377725</v>
+        <v>2074.797953750985</v>
       </c>
       <c r="O42" t="n">
-        <v>1886.090011940317</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P42" t="n">
         <v>2352.277072610002</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.96123154786345</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="C43" t="n">
-        <v>75.96123154786345</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="D43" t="n">
-        <v>75.96123154786345</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="E43" t="n">
-        <v>75.96123154786345</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="F43" t="n">
-        <v>75.96123154786345</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="G43" t="n">
         <v>75.96123154786345</v>
@@ -7599,22 +7599,22 @@
         <v>1222.217555045145</v>
       </c>
       <c r="T43" t="n">
-        <v>1144.775294359473</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U43" t="n">
-        <v>859.3513010128785</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V43" t="n">
-        <v>593.3719558337027</v>
+        <v>436.2543735888368</v>
       </c>
       <c r="W43" t="n">
-        <v>310.0415537648803</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="X43" t="n">
-        <v>75.96123154786345</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="Y43" t="n">
-        <v>75.96123154786345</v>
+        <v>152.9239715200144</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1269.229275930393</v>
+        <v>2087.893404451416</v>
       </c>
       <c r="C44" t="n">
-        <v>876.0537744333237</v>
+        <v>1694.717902954347</v>
       </c>
       <c r="D44" t="n">
-        <v>490.6126456499915</v>
+        <v>1309.276774171014</v>
       </c>
       <c r="E44" t="n">
-        <v>88.02912076653598</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F44" t="n">
-        <v>75.96123154786345</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G44" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H44" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I44" t="n">
         <v>75.96123154786345</v>
@@ -7672,28 +7672,28 @@
         <v>3798.061577393173</v>
       </c>
       <c r="R44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S44" t="n">
         <v>3645.330499340868</v>
       </c>
       <c r="T44" t="n">
-        <v>3424.477523585818</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="U44" t="n">
-        <v>3168.773180116326</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="V44" t="n">
-        <v>2826.666370819845</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="W44" t="n">
-        <v>2455.667335788132</v>
+        <v>3274.331464309155</v>
       </c>
       <c r="X44" t="n">
-        <v>2066.214730721189</v>
+        <v>2884.878859242212</v>
       </c>
       <c r="Y44" t="n">
-        <v>1669.72402164179</v>
+        <v>2488.388150162813</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K45" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L45" t="n">
-        <v>313.8895596758445</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M45" t="n">
-        <v>1022.025029968184</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.29381304741</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O45" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P45" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q45" t="n">
         <v>2352.277072610002</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3566.307841393834</v>
+        <v>392.4435619429715</v>
       </c>
       <c r="C46" t="n">
-        <v>3566.307841393834</v>
+        <v>392.4435619429715</v>
       </c>
       <c r="D46" t="n">
-        <v>3410.674728296349</v>
+        <v>392.4435619429715</v>
       </c>
       <c r="E46" t="n">
-        <v>3255.115916155551</v>
+        <v>392.4435619429715</v>
       </c>
       <c r="F46" t="n">
-        <v>3097.789981368524</v>
+        <v>392.4435619429715</v>
       </c>
       <c r="G46" t="n">
-        <v>2929.807231678895</v>
+        <v>224.4608122533425</v>
       </c>
       <c r="H46" t="n">
-        <v>2776.740821715708</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K46" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L46" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M46" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N46" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O46" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P46" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R46" t="n">
-        <v>3686.359411909726</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S46" t="n">
-        <v>3566.307841393834</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="T46" t="n">
-        <v>3566.307841393834</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="U46" t="n">
-        <v>3566.307841393834</v>
+        <v>392.4435619429715</v>
       </c>
       <c r="V46" t="n">
-        <v>3566.307841393834</v>
+        <v>392.4435619429715</v>
       </c>
       <c r="W46" t="n">
-        <v>3566.307841393834</v>
+        <v>392.4435619429715</v>
       </c>
       <c r="X46" t="n">
-        <v>3566.307841393834</v>
+        <v>392.4435619429715</v>
       </c>
       <c r="Y46" t="n">
-        <v>3566.307841393834</v>
+        <v>392.4435619429715</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O3" t="n">
-        <v>228.1998931286865</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8303,13 +8303,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N6" t="n">
-        <v>709.3350389104421</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8537,10 +8537,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>77.24720226890442</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>80.71399862161709</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>78.11614222553834</v>
       </c>
       <c r="M12" t="n">
-        <v>506.1635127511814</v>
+        <v>537.4012565296578</v>
       </c>
       <c r="N12" t="n">
-        <v>71.06488347458485</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.96615271976248</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>77.2472022689044</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9017,16 +9017,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>71.06488347458485</v>
+        <v>141.8000595485909</v>
       </c>
       <c r="O15" t="n">
-        <v>513.5436442350127</v>
+        <v>79.59923915071164</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.96615271976248</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9245,16 +9245,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>80.71399862161707</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>78.11614222553831</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>417.9464436675243</v>
+        <v>78.44879861622807</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>255.0251814613764</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>77.2472022689044</v>
+        <v>77.24720226890442</v>
       </c>
       <c r="K21" t="n">
-        <v>80.71399862161707</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>78.44879861622807</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>618.2344104716717</v>
       </c>
       <c r="O21" t="n">
-        <v>588.9092795871852</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>76.57883434277655</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>83.96615271976246</v>
+        <v>83.96615271976249</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P24" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O27" t="n">
-        <v>296.744267866067</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P27" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O30" t="n">
-        <v>296.744267866067</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P30" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O33" t="n">
-        <v>296.744267866067</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P33" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O36" t="n">
-        <v>296.744267866067</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P36" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P39" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>52.17609846406339</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>37.86348895248232</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>164.4207744261539</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>2.048060461573968</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>296.744267866067</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>25.90589819983202</v>
       </c>
       <c r="Q42" t="n">
         <v>50.09263685995592</v>
@@ -11378,25 +11378,25 @@
         <v>52.17609846406339</v>
       </c>
       <c r="K45" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>22.15527392737978</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>290.3190376979285</v>
       </c>
       <c r="D11" t="n">
-        <v>190.3455775936377</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>408.9283142668997</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>319.7892792266962</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>132.9900209556174</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>31.15461412430887</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23439,7 +23439,7 @@
         <v>130.3765665682599</v>
       </c>
       <c r="J13" t="n">
-        <v>26.81389666635088</v>
+        <v>26.81389666635089</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>120.5883158341028</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>199.9842001330971</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>165.5913689819549</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>125.5159510628894</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>408.9283142668997</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>319.7892792266962</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>132.5560429177549</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.15461412430885</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>162.5055525480066</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.8155294883027</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1869771745492</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>104.1408375264406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,28 +23655,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.014872107436076</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5253946797129</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>24.53871195126754</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>130.3765665682599</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>26.81389666635089</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>120.5883158341028</v>
       </c>
       <c r="S16" t="n">
-        <v>199.9842001330971</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.1648087637851</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5818882760543</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.9283142668997</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>319.7892792266962</v>
       </c>
       <c r="I17" t="n">
-        <v>132.9900209556174</v>
+        <v>124.4731879120926</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>31.15461412430885</v>
+        <v>31.15461412430887</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>162.5055525480066</v>
       </c>
       <c r="T17" t="n">
-        <v>159.1909634693288</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23907,13 +23907,13 @@
         <v>166.5253946797129</v>
       </c>
       <c r="H19" t="n">
-        <v>153.5137285205241</v>
+        <v>153.5137285205242</v>
       </c>
       <c r="I19" t="n">
         <v>130.3765665682599</v>
       </c>
       <c r="J19" t="n">
-        <v>26.81389666635088</v>
+        <v>26.81389666635089</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>120.5883158341028</v>
       </c>
       <c r="S19" t="n">
         <v>199.9842001330971</v>
       </c>
       <c r="T19" t="n">
-        <v>233.1648087637851</v>
+        <v>125.5159510628893</v>
       </c>
       <c r="U19" t="n">
-        <v>202.2403659721925</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>319.7892792266962</v>
       </c>
       <c r="I20" t="n">
         <v>132.9900209556174</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.305430695132351</v>
+        <v>31.15461412430887</v>
       </c>
       <c r="S20" t="n">
         <v>162.5055525480066</v>
@@ -24025,16 +24025,16 @@
         <v>220.8155294883027</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1869771745492</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>275.8089207208475</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>46.35436631849352</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5253946797129</v>
+        <v>128.1536539618217</v>
       </c>
       <c r="H22" t="n">
-        <v>153.5137285205241</v>
+        <v>153.5137285205242</v>
       </c>
       <c r="I22" t="n">
         <v>130.3765665682599</v>
       </c>
       <c r="J22" t="n">
-        <v>26.81389666635088</v>
+        <v>26.81389666635089</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>233.1648087637851</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5818882760543</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>345.6400558726916</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>113.8693593270195</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>11.53453727673803</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>146.2899140394326</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24414,16 +24414,16 @@
         <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>155.5464064224173</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>157.5056441094188</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>146.257113587805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416195</v>
+        <v>84.10438828008776</v>
       </c>
       <c r="J28" t="n">
         <v>11.08509183685201</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>190.3445776253538</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>111.7968093859138</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.90143994916198</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.9941721843373</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
         <v>11.08509183685201</v>
@@ -24888,7 +24888,7 @@
         <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
         <v>232.2142445012334</v>
@@ -24897,10 +24897,10 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>36.69101497516368</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>264.3702197551791</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>110.2965757792775</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>11.08509183685201</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012334</v>
+        <v>135.9311451262884</v>
       </c>
       <c r="U34" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>133.5183859881763</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.02344657178291</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>150.2284751085797</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25323,16 +25323,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>11.08509183685201</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>60.098865424161</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>25.79110685238845</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>58.52716449139422</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>371.0734954643037</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -25566,10 +25566,10 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
-        <v>151.5357458635549</v>
+        <v>31.19370275994828</v>
       </c>
       <c r="I40" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>11.08509183685201</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25617,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.1810887959127</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25684,19 +25684,19 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>22.86086270056954</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>133.6360611764992</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,7 +25800,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3029221927327</v>
+        <v>90.10980962030327</v>
       </c>
       <c r="H43" t="n">
         <v>151.5357458635549</v>
@@ -25839,7 +25839,7 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
-        <v>155.5464064224173</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>112.602505870043</v>
       </c>
       <c r="F44" t="n">
-        <v>400.7782837588362</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>128.2073731067501</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>77.25605661744589</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610868.5830438009</v>
+        <v>610868.5830438008</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610868.5830438009</v>
+        <v>610868.5830438007</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610868.583043801</v>
+        <v>610868.5830438007</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>610868.5830438008</v>
+        <v>610868.5830438007</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670569.0083864952</v>
+        <v>670569.0083864953</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670569.0083864952</v>
+        <v>670569.0083864953</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670569.0083864952</v>
+        <v>670569.0083864953</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670569.0083864954</v>
+        <v>670569.0083864952</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670569.0083864953</v>
+        <v>670569.0083864952</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670569.0083864952</v>
+        <v>670569.0083864951</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>468863.6630427276</v>
       </c>
       <c r="C2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427277</v>
       </c>
       <c r="D2" t="n">
         <v>468863.6630427276</v>
       </c>
       <c r="E2" t="n">
-        <v>338265.2078452004</v>
+        <v>338265.2078452003</v>
       </c>
       <c r="F2" t="n">
-        <v>338265.2078452002</v>
+        <v>338265.2078452003</v>
       </c>
       <c r="G2" t="n">
-        <v>338265.2078452004</v>
+        <v>338265.2078452003</v>
       </c>
       <c r="H2" t="n">
-        <v>338265.2078452</v>
+        <v>338265.2078452003</v>
       </c>
       <c r="I2" t="n">
-        <v>374378.2378845811</v>
+        <v>374378.2378845813</v>
       </c>
       <c r="J2" t="n">
-        <v>374378.2378845811</v>
+        <v>374378.2378845814</v>
       </c>
       <c r="K2" t="n">
-        <v>374378.2378845811</v>
+        <v>374378.2378845813</v>
       </c>
       <c r="L2" t="n">
         <v>374378.2378845813</v>
       </c>
       <c r="M2" t="n">
-        <v>374378.2378845811</v>
+        <v>374378.2378845813</v>
       </c>
       <c r="N2" t="n">
-        <v>374378.2378845813</v>
+        <v>374378.2378845812</v>
       </c>
       <c r="O2" t="n">
-        <v>374378.2378845813</v>
+        <v>374378.2378845812</v>
       </c>
       <c r="P2" t="n">
-        <v>374378.2378845813</v>
+        <v>374378.2378845812</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>29417.59821721377</v>
+        <v>29417.59821721366</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>130978.3881307324</v>
+        <v>130978.3881307326</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.7131126951</v>
+        <v>203163.713112695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7403.759137484475</v>
+        <v>7403.759137484511</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160514.32285852</v>
+        <v>160514.3228585199</v>
       </c>
       <c r="C4" t="n">
-        <v>160514.32285852</v>
+        <v>160514.3228585199</v>
       </c>
       <c r="D4" t="n">
-        <v>160514.32285852</v>
+        <v>160514.3228585199</v>
       </c>
       <c r="E4" t="n">
         <v>38983.7014101978</v>
@@ -26493,16 +26493,16 @@
         <v>60977.55903357454</v>
       </c>
       <c r="J5" t="n">
+        <v>60977.55903357454</v>
+      </c>
+      <c r="K5" t="n">
         <v>60977.55903357455</v>
-      </c>
-      <c r="K5" t="n">
-        <v>60977.55903357454</v>
       </c>
       <c r="L5" t="n">
         <v>60977.55903357454</v>
       </c>
       <c r="M5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="N5" t="n">
         <v>60977.55903357454</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32708.1522907489</v>
+        <v>-32708.15229074901</v>
       </c>
       <c r="C6" t="n">
+        <v>227511.20312908</v>
+      </c>
+      <c r="D6" t="n">
         <v>227511.2031290799</v>
       </c>
-      <c r="D6" t="n">
-        <v>227511.2031290798</v>
-      </c>
       <c r="E6" t="n">
-        <v>220289.492598626</v>
+        <v>219787.1908478664</v>
       </c>
       <c r="F6" t="n">
-        <v>249707.0908158396</v>
+        <v>249204.78906508</v>
       </c>
       <c r="G6" t="n">
-        <v>249707.0908158399</v>
+        <v>249204.78906508</v>
       </c>
       <c r="H6" t="n">
-        <v>249707.0908158394</v>
+        <v>249204.7890650799</v>
       </c>
       <c r="I6" t="n">
-        <v>144779.6281824634</v>
+        <v>144416.222701086</v>
       </c>
       <c r="J6" t="n">
-        <v>72594.30320050073</v>
+        <v>72230.89771912353</v>
       </c>
       <c r="K6" t="n">
-        <v>275758.0163131958</v>
+        <v>275394.6108318185</v>
       </c>
       <c r="L6" t="n">
-        <v>275758.0163131959</v>
+        <v>275394.6108318184</v>
       </c>
       <c r="M6" t="n">
-        <v>268354.2571757113</v>
+        <v>267990.8516943339</v>
       </c>
       <c r="N6" t="n">
-        <v>275758.0163131959</v>
+        <v>275394.6108318184</v>
       </c>
       <c r="O6" t="n">
-        <v>275758.016313196</v>
+        <v>275394.6108318184</v>
       </c>
       <c r="P6" t="n">
-        <v>275758.016313196</v>
+        <v>275394.6108318184</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.57490538180529</v>
+        <v>25.57490538180522</v>
       </c>
       <c r="F3" t="n">
-        <v>25.57490538180529</v>
+        <v>25.57490538180522</v>
       </c>
       <c r="G3" t="n">
-        <v>25.57490538180529</v>
+        <v>25.57490538180522</v>
       </c>
       <c r="H3" t="n">
-        <v>25.5749053818053</v>
+        <v>25.57490538180521</v>
       </c>
       <c r="I3" t="n">
         <v>148.9460117980881</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="D4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>806.1987283197282</v>
+        <v>806.198728319728</v>
       </c>
       <c r="F4" t="n">
-        <v>806.1987283197282</v>
+        <v>806.198728319728</v>
       </c>
       <c r="G4" t="n">
-        <v>806.1987283197282</v>
+        <v>806.198728319728</v>
       </c>
       <c r="H4" t="n">
-        <v>806.1987283197282</v>
+        <v>806.198728319728</v>
       </c>
       <c r="I4" t="n">
         <v>949.5153943482931</v>
       </c>
       <c r="J4" t="n">
+        <v>949.5153943482931</v>
+      </c>
+      <c r="K4" t="n">
         <v>949.5153943482933</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>949.5153943482931</v>
       </c>
-      <c r="L4" t="n">
-        <v>949.5153943482932</v>
-      </c>
       <c r="M4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482933</v>
       </c>
       <c r="N4" t="n">
         <v>949.5153943482931</v>
       </c>
       <c r="O4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482931</v>
       </c>
       <c r="P4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482931</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.57490538180529</v>
+        <v>25.57490538180522</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.3711064162828</v>
+        <v>123.3711064162829</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.70963201828417</v>
+        <v>29.70963201828398</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>143.3166660285649</v>
+        <v>143.316666028565</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.70963201828411</v>
+        <v>29.70963201828426</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.70963201828417</v>
+        <v>29.70963201828398</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>69.56308287504351</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>294.461575054778</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27548,10 +27548,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27587,25 +27587,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>45.18257638862872</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>205.4478052549337</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.4930587353839</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>119.7174761943067</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27681,10 +27681,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27824,22 +27824,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>87.62118754448949</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>7.08969156841323</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>149.9427160065372</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>215.8954937403215</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>97.59183434446922</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>87.62118754448949</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1028136899771066</v>
+        <v>0.1028136899771063</v>
       </c>
       <c r="H11" t="n">
-        <v>1.052940702478043</v>
+        <v>1.052940702478041</v>
       </c>
       <c r="I11" t="n">
-        <v>3.963724782842406</v>
+        <v>3.963724782842396</v>
       </c>
       <c r="J11" t="n">
-        <v>8.726183419694459</v>
+        <v>8.726183419694438</v>
       </c>
       <c r="K11" t="n">
-        <v>13.07828691642538</v>
+        <v>13.07828691642535</v>
       </c>
       <c r="L11" t="n">
-        <v>16.22477138106226</v>
+        <v>16.22477138106222</v>
       </c>
       <c r="M11" t="n">
-        <v>18.05318434019263</v>
+        <v>18.05318434019259</v>
       </c>
       <c r="N11" t="n">
-        <v>18.34530373684009</v>
+        <v>18.34530373684004</v>
       </c>
       <c r="O11" t="n">
-        <v>17.32295010713023</v>
+        <v>17.32295010713019</v>
       </c>
       <c r="P11" t="n">
-        <v>14.78473713582041</v>
+        <v>14.78473713582038</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.10272186351528</v>
+        <v>11.10272186351525</v>
       </c>
       <c r="R11" t="n">
-        <v>6.458370453024428</v>
+        <v>6.458370453024412</v>
       </c>
       <c r="S11" t="n">
-        <v>2.342866960353319</v>
+        <v>2.342866960353313</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4500669278747844</v>
+        <v>0.4500669278747833</v>
       </c>
       <c r="U11" t="n">
-        <v>0.008225095198168527</v>
+        <v>0.008225095198168506</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05501017384010948</v>
+        <v>0.05501017384010935</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5312824684031627</v>
+        <v>0.5312824684031614</v>
       </c>
       <c r="I12" t="n">
-        <v>1.893990634407279</v>
+        <v>1.893990634407274</v>
       </c>
       <c r="J12" t="n">
-        <v>5.197255064428941</v>
+        <v>5.197255064428928</v>
       </c>
       <c r="K12" t="n">
-        <v>8.882936711716276</v>
+        <v>8.882936711716255</v>
       </c>
       <c r="L12" t="n">
-        <v>11.94420463137991</v>
+        <v>11.94420463137988</v>
       </c>
       <c r="M12" t="n">
-        <v>13.93832343308388</v>
+        <v>13.93832343308384</v>
       </c>
       <c r="N12" t="n">
-        <v>14.30722937958181</v>
+        <v>14.30722937958177</v>
       </c>
       <c r="O12" t="n">
-        <v>13.08831973817728</v>
+        <v>13.08831973817724</v>
       </c>
       <c r="P12" t="n">
-        <v>10.5045304765381</v>
+        <v>10.50453047653808</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.02200043615152</v>
+        <v>7.022000436151503</v>
       </c>
       <c r="R12" t="n">
-        <v>3.415456231932413</v>
+        <v>3.415456231932405</v>
       </c>
       <c r="S12" t="n">
-        <v>1.021789851810805</v>
+        <v>1.021789851810802</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2217296042064061</v>
+        <v>0.2217296042064056</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003619090384217731</v>
+        <v>0.003619090384217722</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04611868183604231</v>
+        <v>0.0461186818360422</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4100370075968129</v>
+        <v>0.4100370075968119</v>
       </c>
       <c r="I13" t="n">
-        <v>1.386914541032982</v>
+        <v>1.386914541032979</v>
       </c>
       <c r="J13" t="n">
-        <v>3.260590805808191</v>
+        <v>3.260590805808183</v>
       </c>
       <c r="K13" t="n">
-        <v>5.358152307860188</v>
+        <v>5.358152307860174</v>
       </c>
       <c r="L13" t="n">
-        <v>6.856590206787602</v>
+        <v>6.856590206787584</v>
       </c>
       <c r="M13" t="n">
-        <v>7.229313008171614</v>
+        <v>7.229313008171596</v>
       </c>
       <c r="N13" t="n">
-        <v>7.057416103146371</v>
+        <v>7.057416103146354</v>
       </c>
       <c r="O13" t="n">
-        <v>6.518666047152601</v>
+        <v>6.518666047152585</v>
       </c>
       <c r="P13" t="n">
-        <v>5.577844937697334</v>
+        <v>5.57784493769732</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.861810712652598</v>
+        <v>3.861810712652589</v>
       </c>
       <c r="R13" t="n">
-        <v>2.073663639646047</v>
+        <v>2.073663639646043</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8037228461790281</v>
+        <v>0.8037228461790261</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1970525496630899</v>
+        <v>0.1970525496630894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002515564463784129</v>
+        <v>0.002515564463784123</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1028136899771066</v>
+        <v>0.1028136899771063</v>
       </c>
       <c r="H14" t="n">
-        <v>1.052940702478043</v>
+        <v>1.05294070247804</v>
       </c>
       <c r="I14" t="n">
-        <v>3.963724782842407</v>
+        <v>3.963724782842395</v>
       </c>
       <c r="J14" t="n">
-        <v>8.726183419694461</v>
+        <v>8.726183419694435</v>
       </c>
       <c r="K14" t="n">
-        <v>13.07828691642539</v>
+        <v>13.07828691642535</v>
       </c>
       <c r="L14" t="n">
-        <v>16.22477138106227</v>
+        <v>16.22477138106222</v>
       </c>
       <c r="M14" t="n">
-        <v>18.05318434019264</v>
+        <v>18.05318434019258</v>
       </c>
       <c r="N14" t="n">
-        <v>18.34530373684009</v>
+        <v>18.34530373684004</v>
       </c>
       <c r="O14" t="n">
-        <v>17.32295010713024</v>
+        <v>17.32295010713019</v>
       </c>
       <c r="P14" t="n">
-        <v>14.78473713582042</v>
+        <v>14.78473713582037</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.10272186351528</v>
+        <v>11.10272186351525</v>
       </c>
       <c r="R14" t="n">
-        <v>6.45837045302443</v>
+        <v>6.45837045302441</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34286696035332</v>
+        <v>2.342866960353313</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4500669278747845</v>
+        <v>0.4500669278747831</v>
       </c>
       <c r="U14" t="n">
-        <v>0.008225095198168528</v>
+        <v>0.008225095198168504</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05501017384010951</v>
+        <v>0.05501017384010933</v>
       </c>
       <c r="H15" t="n">
-        <v>0.531282468403163</v>
+        <v>0.5312824684031613</v>
       </c>
       <c r="I15" t="n">
-        <v>1.893990634407279</v>
+        <v>1.893990634407273</v>
       </c>
       <c r="J15" t="n">
-        <v>5.197255064428943</v>
+        <v>5.197255064428927</v>
       </c>
       <c r="K15" t="n">
-        <v>8.88293671171628</v>
+        <v>8.882936711716251</v>
       </c>
       <c r="L15" t="n">
-        <v>11.94420463137992</v>
+        <v>11.94420463137988</v>
       </c>
       <c r="M15" t="n">
-        <v>13.93832343308388</v>
+        <v>13.93832343308384</v>
       </c>
       <c r="N15" t="n">
-        <v>14.30722937958181</v>
+        <v>14.30722937958177</v>
       </c>
       <c r="O15" t="n">
-        <v>13.08831973817728</v>
+        <v>13.08831973817724</v>
       </c>
       <c r="P15" t="n">
-        <v>10.5045304765381</v>
+        <v>10.50453047653807</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.022000436151522</v>
+        <v>7.022000436151501</v>
       </c>
       <c r="R15" t="n">
-        <v>3.415456231932414</v>
+        <v>3.415456231932404</v>
       </c>
       <c r="S15" t="n">
-        <v>1.021789851810805</v>
+        <v>1.021789851810802</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2217296042064062</v>
+        <v>0.2217296042064055</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003619090384217732</v>
+        <v>0.003619090384217721</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04611868183604233</v>
+        <v>0.04611868183604219</v>
       </c>
       <c r="H16" t="n">
-        <v>0.410037007596813</v>
+        <v>0.4100370075968118</v>
       </c>
       <c r="I16" t="n">
-        <v>1.386914541032982</v>
+        <v>1.386914541032978</v>
       </c>
       <c r="J16" t="n">
-        <v>3.260590805808192</v>
+        <v>3.260590805808183</v>
       </c>
       <c r="K16" t="n">
-        <v>5.358152307860189</v>
+        <v>5.358152307860173</v>
       </c>
       <c r="L16" t="n">
-        <v>6.856590206787604</v>
+        <v>6.856590206787582</v>
       </c>
       <c r="M16" t="n">
-        <v>7.229313008171617</v>
+        <v>7.229313008171594</v>
       </c>
       <c r="N16" t="n">
-        <v>7.057416103146373</v>
+        <v>7.057416103146352</v>
       </c>
       <c r="O16" t="n">
-        <v>6.518666047152603</v>
+        <v>6.518666047152584</v>
       </c>
       <c r="P16" t="n">
-        <v>5.577844937697336</v>
+        <v>5.577844937697319</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.861810712652599</v>
+        <v>3.861810712652587</v>
       </c>
       <c r="R16" t="n">
-        <v>2.073663639646048</v>
+        <v>2.073663639646042</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8037228461790283</v>
+        <v>0.8037228461790259</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1970525496630899</v>
+        <v>0.1970525496630893</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00251556446378413</v>
+        <v>0.002515564463784122</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1028136899771066</v>
+        <v>0.1028136899771063</v>
       </c>
       <c r="H17" t="n">
-        <v>1.052940702478043</v>
+        <v>1.05294070247804</v>
       </c>
       <c r="I17" t="n">
-        <v>3.963724782842407</v>
+        <v>3.963724782842395</v>
       </c>
       <c r="J17" t="n">
-        <v>8.726183419694461</v>
+        <v>8.726183419694435</v>
       </c>
       <c r="K17" t="n">
-        <v>13.07828691642539</v>
+        <v>13.07828691642535</v>
       </c>
       <c r="L17" t="n">
-        <v>16.22477138106226</v>
+        <v>16.22477138106222</v>
       </c>
       <c r="M17" t="n">
-        <v>18.05318434019264</v>
+        <v>18.05318434019258</v>
       </c>
       <c r="N17" t="n">
-        <v>18.34530373684009</v>
+        <v>18.34530373684004</v>
       </c>
       <c r="O17" t="n">
-        <v>17.32295010713024</v>
+        <v>17.32295010713019</v>
       </c>
       <c r="P17" t="n">
-        <v>14.78473713582041</v>
+        <v>14.78473713582037</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.10272186351528</v>
+        <v>11.10272186351525</v>
       </c>
       <c r="R17" t="n">
-        <v>6.458370453024429</v>
+        <v>6.45837045302441</v>
       </c>
       <c r="S17" t="n">
-        <v>2.342866960353319</v>
+        <v>2.342866960353313</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4500669278747845</v>
+        <v>0.4500669278747831</v>
       </c>
       <c r="U17" t="n">
-        <v>0.008225095198168528</v>
+        <v>0.008225095198168504</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0550101738401095</v>
+        <v>0.05501017384010933</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5312824684031628</v>
+        <v>0.5312824684031613</v>
       </c>
       <c r="I18" t="n">
-        <v>1.893990634407279</v>
+        <v>1.893990634407273</v>
       </c>
       <c r="J18" t="n">
-        <v>5.197255064428942</v>
+        <v>5.197255064428927</v>
       </c>
       <c r="K18" t="n">
-        <v>8.882936711716278</v>
+        <v>8.882936711716251</v>
       </c>
       <c r="L18" t="n">
-        <v>11.94420463137992</v>
+        <v>11.94420463137988</v>
       </c>
       <c r="M18" t="n">
-        <v>13.93832343308388</v>
+        <v>13.93832343308384</v>
       </c>
       <c r="N18" t="n">
-        <v>14.30722937958181</v>
+        <v>14.30722937958177</v>
       </c>
       <c r="O18" t="n">
-        <v>13.08831973817728</v>
+        <v>13.08831973817724</v>
       </c>
       <c r="P18" t="n">
-        <v>10.5045304765381</v>
+        <v>10.50453047653807</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.022000436151521</v>
+        <v>7.022000436151501</v>
       </c>
       <c r="R18" t="n">
-        <v>3.415456231932414</v>
+        <v>3.415456231932404</v>
       </c>
       <c r="S18" t="n">
-        <v>1.021789851810805</v>
+        <v>1.021789851810802</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2217296042064062</v>
+        <v>0.2217296042064055</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003619090384217732</v>
+        <v>0.003619090384217721</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04611868183604232</v>
+        <v>0.04611868183604219</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4100370075968129</v>
+        <v>0.4100370075968118</v>
       </c>
       <c r="I19" t="n">
-        <v>1.386914541032982</v>
+        <v>1.386914541032978</v>
       </c>
       <c r="J19" t="n">
-        <v>3.260590805808192</v>
+        <v>3.260590805808183</v>
       </c>
       <c r="K19" t="n">
-        <v>5.358152307860188</v>
+        <v>5.358152307860173</v>
       </c>
       <c r="L19" t="n">
-        <v>6.856590206787603</v>
+        <v>6.856590206787582</v>
       </c>
       <c r="M19" t="n">
-        <v>7.229313008171615</v>
+        <v>7.229313008171594</v>
       </c>
       <c r="N19" t="n">
-        <v>7.057416103146372</v>
+        <v>7.057416103146352</v>
       </c>
       <c r="O19" t="n">
-        <v>6.518666047152602</v>
+        <v>6.518666047152584</v>
       </c>
       <c r="P19" t="n">
-        <v>5.577844937697335</v>
+        <v>5.577844937697319</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.861810712652599</v>
+        <v>3.861810712652587</v>
       </c>
       <c r="R19" t="n">
-        <v>2.073663639646048</v>
+        <v>2.073663639646042</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8037228461790282</v>
+        <v>0.8037228461790259</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1970525496630899</v>
+        <v>0.1970525496630893</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00251556446378413</v>
+        <v>0.002515564463784122</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1028136899771067</v>
+        <v>0.1028136899771063</v>
       </c>
       <c r="H20" t="n">
-        <v>1.052940702478044</v>
+        <v>1.05294070247804</v>
       </c>
       <c r="I20" t="n">
-        <v>3.963724782842408</v>
+        <v>3.963724782842394</v>
       </c>
       <c r="J20" t="n">
-        <v>8.726183419694465</v>
+        <v>8.726183419694431</v>
       </c>
       <c r="K20" t="n">
-        <v>13.07828691642539</v>
+        <v>13.07828691642534</v>
       </c>
       <c r="L20" t="n">
-        <v>16.22477138106227</v>
+        <v>16.22477138106221</v>
       </c>
       <c r="M20" t="n">
-        <v>18.05318434019264</v>
+        <v>18.05318434019258</v>
       </c>
       <c r="N20" t="n">
-        <v>18.3453037368401</v>
+        <v>18.34530373684003</v>
       </c>
       <c r="O20" t="n">
-        <v>17.32295010713024</v>
+        <v>17.32295010713018</v>
       </c>
       <c r="P20" t="n">
-        <v>14.78473713582042</v>
+        <v>14.78473713582036</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.10272186351528</v>
+        <v>11.10272186351524</v>
       </c>
       <c r="R20" t="n">
-        <v>6.458370453024432</v>
+        <v>6.458370453024408</v>
       </c>
       <c r="S20" t="n">
-        <v>2.34286696035332</v>
+        <v>2.342866960353311</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4500669278747846</v>
+        <v>0.450066927874783</v>
       </c>
       <c r="U20" t="n">
-        <v>0.008225095198168532</v>
+        <v>0.008225095198168501</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05501017384010952</v>
+        <v>0.05501017384010931</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5312824684031631</v>
+        <v>0.5312824684031611</v>
       </c>
       <c r="I21" t="n">
-        <v>1.89399063440728</v>
+        <v>1.893990634407273</v>
       </c>
       <c r="J21" t="n">
-        <v>5.197255064428944</v>
+        <v>5.197255064428925</v>
       </c>
       <c r="K21" t="n">
-        <v>8.882936711716281</v>
+        <v>8.882936711716248</v>
       </c>
       <c r="L21" t="n">
-        <v>11.94420463137992</v>
+        <v>11.94420463137988</v>
       </c>
       <c r="M21" t="n">
-        <v>13.93832343308389</v>
+        <v>13.93832343308384</v>
       </c>
       <c r="N21" t="n">
-        <v>14.30722937958182</v>
+        <v>14.30722937958176</v>
       </c>
       <c r="O21" t="n">
-        <v>13.08831973817728</v>
+        <v>13.08831973817724</v>
       </c>
       <c r="P21" t="n">
-        <v>10.50453047653811</v>
+        <v>10.50453047653807</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.022000436151524</v>
+        <v>7.022000436151498</v>
       </c>
       <c r="R21" t="n">
-        <v>3.415456231932415</v>
+        <v>3.415456231932402</v>
       </c>
       <c r="S21" t="n">
-        <v>1.021789851810806</v>
+        <v>1.021789851810802</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2217296042064063</v>
+        <v>0.2217296042064054</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003619090384217733</v>
+        <v>0.003619090384217719</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04611868183604234</v>
+        <v>0.04611868183604217</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4100370075968131</v>
+        <v>0.4100370075968116</v>
       </c>
       <c r="I22" t="n">
-        <v>1.386914541032983</v>
+        <v>1.386914541032978</v>
       </c>
       <c r="J22" t="n">
-        <v>3.260590805808193</v>
+        <v>3.260590805808181</v>
       </c>
       <c r="K22" t="n">
-        <v>5.358152307860191</v>
+        <v>5.358152307860171</v>
       </c>
       <c r="L22" t="n">
-        <v>6.856590206787605</v>
+        <v>6.85659020678758</v>
       </c>
       <c r="M22" t="n">
-        <v>7.229313008171618</v>
+        <v>7.229313008171591</v>
       </c>
       <c r="N22" t="n">
-        <v>7.057416103146375</v>
+        <v>7.057416103146349</v>
       </c>
       <c r="O22" t="n">
-        <v>6.518666047152605</v>
+        <v>6.518666047152581</v>
       </c>
       <c r="P22" t="n">
-        <v>5.577844937697337</v>
+        <v>5.577844937697316</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.8618107126526</v>
+        <v>3.861810712652586</v>
       </c>
       <c r="R22" t="n">
-        <v>2.073663639646049</v>
+        <v>2.073663639646041</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8037228461790286</v>
+        <v>0.8037228461790256</v>
       </c>
       <c r="T22" t="n">
-        <v>0.19705254966309</v>
+        <v>0.1970525496630892</v>
       </c>
       <c r="U22" t="n">
-        <v>0.002515564463784131</v>
+        <v>0.002515564463784121</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O3" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,13 +35023,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N6" t="n">
-        <v>623.9629260562755</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35257,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>375.686727348205</v>
       </c>
       <c r="L11" t="n">
-        <v>514.5280963492733</v>
+        <v>514.5280963492731</v>
       </c>
       <c r="M11" t="n">
         <v>569.5692449912841</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4548128621334</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>331.8517711180056</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.394796447858</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>427.7147141349533</v>
+        <v>458.9524579134297</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>676.7092205013587</v>
       </c>
       <c r="O12" t="n">
         <v>534.8259789209864</v>
@@ -35509,7 +35509,7 @@
         <v>420.2230847355254</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>243.7544161481621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>88.01980999467017</v>
+        <v>88.01980999467015</v>
       </c>
       <c r="L13" t="n">
         <v>172.6420850288076</v>
@@ -35579,16 +35579,16 @@
         <v>195.4026244609636</v>
       </c>
       <c r="N13" t="n">
-        <v>192.0974504781052</v>
+        <v>192.0974504781051</v>
       </c>
       <c r="O13" t="n">
-        <v>170.8669155842315</v>
+        <v>170.8669155842314</v>
       </c>
       <c r="P13" t="n">
         <v>126.6648810756555</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.318574722805081</v>
+        <v>7.318574722805072</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>375.686727348205</v>
       </c>
       <c r="L14" t="n">
-        <v>514.5280963492733</v>
+        <v>514.5280963492731</v>
       </c>
       <c r="M14" t="n">
         <v>569.5692449912841</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.4548128621334</v>
       </c>
       <c r="K15" t="n">
         <v>331.8517711180056</v>
       </c>
       <c r="L15" t="n">
-        <v>500.394796447858</v>
+        <v>500.3947964478579</v>
       </c>
       <c r="M15" t="n">
         <v>648.0511008337719</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>70.73517607400596</v>
       </c>
       <c r="O15" t="n">
-        <v>433.9444050843011</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>420.2230847355254</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>243.7544161481621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>88.01980999467017</v>
+        <v>88.01980999467014</v>
       </c>
       <c r="L16" t="n">
         <v>172.6420850288076</v>
@@ -35816,16 +35816,16 @@
         <v>195.4026244609636</v>
       </c>
       <c r="N16" t="n">
-        <v>192.0974504781052</v>
+        <v>192.0974504781051</v>
       </c>
       <c r="O16" t="n">
-        <v>170.8669155842315</v>
+        <v>170.8669155842314</v>
       </c>
       <c r="P16" t="n">
         <v>126.6648810756555</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.318574722805082</v>
+        <v>7.318574722805071</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>375.686727348205</v>
       </c>
       <c r="L17" t="n">
-        <v>514.5280963492733</v>
+        <v>514.5280963492731</v>
       </c>
       <c r="M17" t="n">
         <v>569.5692449912841</v>
@@ -35965,16 +35965,16 @@
         <v>119.4548128621334</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>331.8517711180056</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3947964478579</v>
       </c>
       <c r="M18" t="n">
-        <v>339.4976450512963</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7092205013587</v>
+        <v>183.9602979867915</v>
       </c>
       <c r="O18" t="n">
         <v>534.8259789209864</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.01980999467017</v>
+        <v>88.01980999467014</v>
       </c>
       <c r="L19" t="n">
         <v>172.6420850288076</v>
@@ -36053,16 +36053,16 @@
         <v>195.4026244609636</v>
       </c>
       <c r="N19" t="n">
-        <v>192.0974504781052</v>
+        <v>192.0974504781051</v>
       </c>
       <c r="O19" t="n">
-        <v>170.8669155842315</v>
+        <v>170.8669155842314</v>
       </c>
       <c r="P19" t="n">
         <v>126.6648810756555</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.318574722805081</v>
+        <v>7.318574722805071</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>154.8370651457835</v>
+        <v>154.8370651457834</v>
       </c>
       <c r="K20" t="n">
         <v>375.686727348205</v>
       </c>
       <c r="L20" t="n">
-        <v>514.5280963492733</v>
+        <v>514.5280963492731</v>
       </c>
       <c r="M20" t="n">
         <v>569.5692449912841</v>
       </c>
       <c r="N20" t="n">
-        <v>551.4880144817513</v>
+        <v>551.4880144817512</v>
       </c>
       <c r="O20" t="n">
         <v>461.8073954529165</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>331.8517711180056</v>
       </c>
       <c r="L21" t="n">
-        <v>500.394796447858</v>
+        <v>500.3947964478579</v>
       </c>
       <c r="M21" t="n">
-        <v>648.0511008337719</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7092205013587</v>
+        <v>547.1695269970868</v>
       </c>
       <c r="O21" t="n">
-        <v>509.3100404364736</v>
+        <v>534.8259789209864</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>420.2230847355254</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.01980999467017</v>
+        <v>88.01980999467014</v>
       </c>
       <c r="L22" t="n">
         <v>172.6420850288076</v>
@@ -36290,16 +36290,16 @@
         <v>195.4026244609636</v>
       </c>
       <c r="N22" t="n">
-        <v>192.0974504781052</v>
+        <v>192.0974504781051</v>
       </c>
       <c r="O22" t="n">
-        <v>170.8669155842315</v>
+        <v>170.8669155842314</v>
       </c>
       <c r="P22" t="n">
         <v>126.6648810756555</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.318574722805083</v>
+        <v>7.318574722805069</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3316445737182</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M24" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>597.9628884470627</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L27" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M27" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>280.2819382414318</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L30" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>280.2819382414318</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>280.2819382414318</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>280.2819382414318</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
-        <v>240.3316445737182</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>597.9628884470627</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>144.5259166669744</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M42" t="n">
-        <v>153.2092288067999</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>745.7260435143695</v>
       </c>
       <c r="O42" t="n">
-        <v>597.9628884470627</v>
+        <v>280.2819382414318</v>
       </c>
       <c r="P42" t="n">
-        <v>470.8960208784699</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
-        <v>240.3316445737182</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M45" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>745.7260435143695</v>
+        <v>20.10721346580581</v>
       </c>
       <c r="O45" t="n">
         <v>597.9628884470627</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
